--- a/M1 Requirements Engineering  Submission.xlsx
+++ b/M1 Requirements Engineering  Submission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DR.ATEF\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F109CB-2D18-4BBC-8384-A6ED9367437C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5E4629-F81D-47BB-9397-C41327AE5F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -19,23 +19,23 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 11" guid="{D3047B25-CD5B-448B-99E2-828F207BF428}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 12" guid="{6F7BB375-85A7-4A30-A619-91B973D357F5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 13" guid="{B8681FA6-D3B7-4A7D-A1A7-054E6704677B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 14" guid="{261C53CC-35CD-4756-ABBE-2C557489A0EB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 15" guid="{C914D49E-3A4D-43F4-AE0F-75B2C74996E7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 16" guid="{18F81B50-1A3F-455F-8BB8-96513F13D2E0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="health" guid="{C5310A51-EA73-40BE-8E7A-633F2D4639ED}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 8" guid="{85FB7E68-399B-43FB-82FA-FDE998822D8F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 9" guid="{532A459D-C7E8-4537-BA7D-15163CD473D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 10" guid="{BC34986F-7A52-4C64-8275-5BD521788C25}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 6" guid="{0E9639EB-F345-4A22-B530-1E4F2C4A44F1}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 7" guid="{3621E35B-FA90-4A3C-9C0B-CF3EB2F77A14}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 4" guid="{E6571419-4856-440D-B012-F25CB8BC0966}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 5" guid="{0FDF947D-9923-4A8F-96EE-EEDD035B15BA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{6A9F8B20-4077-4F3B-8520-429F1AB637D7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{591C9946-1522-4BA7-BBE5-B7531C535AED}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{B1CA05C7-8ACD-4F9C-95CC-AE89D9757EF5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{591C9946-1522-4BA7-BBE5-B7531C535AED}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{6A9F8B20-4077-4F3B-8520-429F1AB637D7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 5" guid="{0FDF947D-9923-4A8F-96EE-EEDD035B15BA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{E6571419-4856-440D-B012-F25CB8BC0966}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 7" guid="{3621E35B-FA90-4A3C-9C0B-CF3EB2F77A14}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 6" guid="{0E9639EB-F345-4A22-B530-1E4F2C4A44F1}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 10" guid="{BC34986F-7A52-4C64-8275-5BD521788C25}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 9" guid="{532A459D-C7E8-4537-BA7D-15163CD473D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 8" guid="{85FB7E68-399B-43FB-82FA-FDE998822D8F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="health" guid="{C5310A51-EA73-40BE-8E7A-633F2D4639ED}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 16" guid="{18F81B50-1A3F-455F-8BB8-96513F13D2E0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 15" guid="{C914D49E-3A4D-43F4-AE0F-75B2C74996E7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 14" guid="{261C53CC-35CD-4756-ABBE-2C557489A0EB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 13" guid="{B8681FA6-D3B7-4A7D-A1A7-054E6704677B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 12" guid="{6F7BB375-85A7-4A30-A619-91B973D357F5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 11" guid="{D3047B25-CD5B-448B-99E2-828F207BF428}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -465,9 +465,6 @@
     <t>be able to star a post and save it</t>
   </si>
   <si>
-    <t>I find it quickly in case I'm interested to donate later</t>
-  </si>
-  <si>
     <t>have a voice-activated navigation option in the system</t>
   </si>
   <si>
@@ -501,9 +498,6 @@
     <t xml:space="preserve"> I can arrange delightful treats for special parties or celebrations in the orphanage</t>
   </si>
   <si>
-    <t>sweets can include like donuts, arabic sweets, kahk , eid biscuits -- communication is through the app itself it is a ui button</t>
-  </si>
-  <si>
     <t>Refugee and people living below the poverty line needs</t>
   </si>
   <si>
@@ -555,9 +549,6 @@
     <t>I can pick a good apartment based on previous experiences</t>
   </si>
   <si>
-    <t>submit a review of the accomodation and living condition for the apartment after rent duration</t>
-  </si>
-  <si>
     <t xml:space="preserve">I can be of great benefit to future residents </t>
   </si>
   <si>
@@ -645,18 +636,9 @@
     <t>I can express my interest in providing a workshop aligned with my hobbies and passions</t>
   </si>
   <si>
-    <t xml:space="preserve">choose from the two available ramadan box options: beneficiary wish lists or customize my box </t>
-  </si>
-  <si>
     <t xml:space="preserve"> I can take pride in assisting individuals during this sacred month.</t>
   </si>
   <si>
-    <t xml:space="preserve">    wishlist </t>
-  </si>
-  <si>
-    <t xml:space="preserve">post a request for a quantity of ramadan boxes while specifying the needed items </t>
-  </si>
-  <si>
     <t>I can adequately meet the needs of the individuals residing in the orphanage during this sacred month</t>
   </si>
   <si>
@@ -727,9 +709,6 @@
   </si>
   <si>
     <t xml:space="preserve">I can safeguard the children with allergies and diet restrictions </t>
-  </si>
-  <si>
-    <t>common allergens with a checkbox for each one: Eggs, Fish ,Peanuts, Soybeans ,Milk ,Nuts,Wheat</t>
   </si>
   <si>
     <t>input the type,gender,size,and condition when posting a donation/request for shoes,clothing or bags</t>
@@ -1198,18 +1177,12 @@
     <t>Privacy</t>
   </si>
   <si>
-    <t>Sensitive information about the donor and beneficiary will not be visible to the public</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 21,34,94</t>
   </si>
   <si>
     <t>Responsiveness</t>
   </si>
   <si>
-    <t>The system should take a short time taken to react to user input</t>
-  </si>
-  <si>
     <t>The Mean Time To Respond (MTTR) should be at most 500 milliseconds</t>
   </si>
   <si>
@@ -1226,9 +1199,6 @@
   </si>
   <si>
     <t xml:space="preserve">The system can easily run on different platforms </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system should run on different operating systems as well as on the desktop or mobile app thus it should have a minimum of 2 target systems </t>
   </si>
   <si>
     <t xml:space="preserve">Accessibility </t>
@@ -1268,9 +1238,6 @@
     <t>Elasticity</t>
   </si>
   <si>
-    <t>The system should be able to handle requests at peak traffic times like Ramadan and Back To School times</t>
-  </si>
-  <si>
     <t>Reliability</t>
   </si>
   <si>
@@ -1303,10 +1270,43 @@
     <t>Measurement</t>
   </si>
   <si>
-    <t>The system should be able continue functioning correctly and reliably even in the face of unexpected situations or errors</t>
-  </si>
-  <si>
     <t>The system should be  able to handle up to 50,000 concurrent users at such times</t>
+  </si>
+  <si>
+    <t>The system should take a short time to react to user input</t>
+  </si>
+  <si>
+    <t>The system should be able to continue functioning correctly and reliably even in the face of unexpected situations or errors</t>
+  </si>
+  <si>
+    <t>Sensitive information about the donor and beneficiary should not be visible to the public</t>
+  </si>
+  <si>
+    <t>The system should be able to handle requests at peak traffic times like Ramadan, Eid, and Back To School times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system should run on different operating systems as well as on the desktop or mobile app;thus, it should have a minimum of 2 target systems </t>
+  </si>
+  <si>
+    <t>I can find it quickly in case I'm interested to donate later</t>
+  </si>
+  <si>
+    <t>sweets can include like donuts, Arabic sweets, kahk , eid biscuits -- communication is through the app itself it is a UI button</t>
+  </si>
+  <si>
+    <t>submit a review of the accommodation and living condition for the apartment after rent duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choose from the two available Ramadan box options: beneficiary wish lists or customize my box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Wishlist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">post a request for a quantity of Ramadan boxes while specifying the needed items </t>
+  </si>
+  <si>
+    <t>common allergens with a checkbox for each one: Eggs, Fish ,Peanuts, Soybeans ,Milk ,Unsweet</t>
   </si>
 </sst>
 </file>
@@ -1687,13 +1687,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1705,6 +1698,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1939,20 +1939,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -3043,8 +3043,8 @@
   </sheetPr>
   <dimension ref="A1:Z170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I130" workbookViewId="0">
-      <selection activeCell="S80" sqref="S80"/>
+    <sheetView topLeftCell="C129" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4114,7 +4114,7 @@
         <v>138</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>139</v>
+        <v>412</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>34</v>
@@ -4134,10 +4134,10 @@
         <v>46</v>
       </c>
       <c r="E45" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>141</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>41</v>
@@ -4159,16 +4159,16 @@
         <v>31</v>
       </c>
       <c r="E46" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -4186,10 +4186,10 @@
         <v>31</v>
       </c>
       <c r="E47" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>146</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>34</v>
@@ -4198,10 +4198,10 @@
     </row>
     <row r="48" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>147</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>148</v>
       </c>
       <c r="C48" s="16">
         <f t="shared" si="0"/>
@@ -4211,21 +4211,21 @@
         <v>36</v>
       </c>
       <c r="E48" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>150</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>151</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B49" s="16">
         <v>19</v>
@@ -4237,10 +4237,10 @@
         <v>31</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>34</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="50" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B50" s="16">
         <v>47</v>
@@ -4262,10 +4262,10 @@
         <v>31</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G50" s="21" t="s">
         <v>34</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="51" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B51" s="16">
         <v>31</v>
@@ -4287,10 +4287,10 @@
         <v>36</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G51" s="21" t="s">
         <v>38</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="52" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B52" s="16">
         <v>49</v>
@@ -4312,10 +4312,10 @@
         <v>36</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>38</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="53" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B53" s="16">
         <v>49</v>
@@ -4337,10 +4337,10 @@
         <v>36</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G53" s="21" t="s">
         <v>38</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="54" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B54" s="16">
         <v>49</v>
@@ -4362,10 +4362,10 @@
         <v>36</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>38</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="55" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B55" s="16">
         <v>52</v>
@@ -4386,10 +4386,10 @@
         <v>36</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G55" s="24" t="s">
         <v>38</v>
@@ -4398,7 +4398,7 @@
     </row>
     <row r="56" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B56" s="16">
         <v>52</v>
@@ -4411,10 +4411,10 @@
         <v>36</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>38</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="57" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="16">
@@ -4434,10 +4434,10 @@
         <v>36</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>169</v>
+        <v>414</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>38</v>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="58" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B58" s="16">
         <v>52</v>
@@ -4458,10 +4458,10 @@
         <v>36</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G58" s="24" t="s">
         <v>38</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="59" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B59" s="16">
         <v>56</v>
@@ -4482,10 +4482,10 @@
         <v>31</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>41</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="60" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B60" s="13">
         <v>53</v>
@@ -4506,10 +4506,10 @@
         <v>36</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>38</v>
@@ -4518,10 +4518,10 @@
     </row>
     <row r="61" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C61" s="16">
         <v>59</v>
@@ -4530,10 +4530,10 @@
         <v>56</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>41</v>
@@ -4542,10 +4542,10 @@
     </row>
     <row r="62" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C62" s="16">
         <v>60</v>
@@ -4554,10 +4554,10 @@
         <v>56</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>34</v>
@@ -4566,10 +4566,10 @@
     </row>
     <row r="63" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C63" s="16">
         <v>61</v>
@@ -4578,10 +4578,10 @@
         <v>56</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G63" s="13" t="s">
         <v>34</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="64" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B64" s="13">
         <v>61</v>
@@ -4602,10 +4602,10 @@
         <v>31</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G64" s="13" t="s">
         <v>34</v>
@@ -4614,10 +4614,10 @@
     </row>
     <row r="65" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C65" s="16">
         <f t="shared" ref="C65:C112" si="3">ROW()-2</f>
@@ -4627,10 +4627,10 @@
         <v>56</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>34</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="66" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B66" s="13">
         <v>63</v>
@@ -4652,10 +4652,10 @@
         <v>56</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G66" s="13" t="s">
         <v>34</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="67" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B67" s="13">
         <v>24</v>
@@ -4677,10 +4677,10 @@
         <v>56</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G67" s="13" t="s">
         <v>34</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="68" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B68" s="13">
         <v>24</v>
@@ -4702,10 +4702,10 @@
         <v>56</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G68" s="13" t="s">
         <v>34</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="69" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B69" s="13">
         <v>24</v>
@@ -4727,10 +4727,10 @@
         <v>56</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>34</v>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="70" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B70" s="13">
         <v>86</v>
@@ -4752,10 +4752,10 @@
         <v>31</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>34</v>
@@ -4764,7 +4764,7 @@
     </row>
     <row r="71" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B71" s="16">
         <v>27</v>
@@ -4773,25 +4773,25 @@
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="D71" s="57" t="s">
+      <c r="D71" s="54" t="s">
         <v>31</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>199</v>
+        <v>415</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G71" s="21" t="s">
         <v>34</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>201</v>
+        <v>416</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B72" s="13">
         <v>27</v>
@@ -4804,10 +4804,10 @@
         <v>36</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>202</v>
+        <v>417</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>38</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="73" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B73" s="16">
         <v>69</v>
@@ -4829,10 +4829,10 @@
         <v>31</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G73" s="21" t="s">
         <v>34</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="74" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B74" s="16">
         <v>69</v>
@@ -4854,21 +4854,21 @@
         <v>31</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G74" s="21" t="s">
         <v>34</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B75" s="13">
         <v>24</v>
@@ -4877,14 +4877,14 @@
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="D75" s="58" t="s">
+      <c r="D75" s="55" t="s">
         <v>36</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G75" s="21" t="s">
         <v>38</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="76" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B76" s="13">
         <v>39</v>
@@ -4902,41 +4902,41 @@
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="D76" s="58" t="s">
+      <c r="D76" s="55" t="s">
         <v>36</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G76" s="21" t="s">
         <v>38</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C77" s="16">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="D77" s="57" t="s">
+      <c r="D77" s="54" t="s">
         <v>31</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G77" s="21" t="s">
         <v>34</v>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="78" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B78" s="16">
         <v>19</v>
@@ -4954,14 +4954,14 @@
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="D78" s="57" t="s">
+      <c r="D78" s="54" t="s">
         <v>31</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G78" s="21" t="s">
         <v>34</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="79" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B79" s="16">
         <v>27</v>
@@ -4983,21 +4983,21 @@
         <v>36</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G79" s="21" t="s">
         <v>38</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B80" s="13">
         <v>82</v>
@@ -5010,22 +5010,22 @@
         <v>56</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="S80" s="27"/>
     </row>
     <row r="81" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B81" s="13">
         <v>33</v>
@@ -5034,28 +5034,28 @@
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="D81" s="59" t="s">
+      <c r="D81" s="56" t="s">
         <v>31</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>227</v>
+        <v>418</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C82" s="16">
         <f t="shared" si="3"/>
@@ -5065,21 +5065,21 @@
         <v>56</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G82" s="21" t="s">
         <v>34</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B83" s="13">
         <v>24</v>
@@ -5092,10 +5092,10 @@
         <v>56</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>34</v>
@@ -5104,10 +5104,10 @@
     </row>
     <row r="84" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C84" s="13">
         <f t="shared" si="3"/>
@@ -5117,10 +5117,10 @@
         <v>56</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>34</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="85" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B85" s="16">
         <v>24</v>
@@ -5142,10 +5142,10 @@
         <v>56</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G85" s="21" t="s">
         <v>34</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="86" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B86" s="28">
         <v>19</v>
@@ -5167,10 +5167,10 @@
         <v>31</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F86" s="28" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G86" s="28" t="s">
         <v>34</v>
@@ -5179,7 +5179,7 @@
     </row>
     <row r="87" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B87" s="16">
         <v>24</v>
@@ -5192,10 +5192,10 @@
         <v>36</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>38</v>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="88" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B88" s="13">
         <v>24</v>
@@ -5217,10 +5217,10 @@
         <v>31</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G88" s="13" t="s">
         <v>34</v>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="89" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B89" s="13">
         <v>27</v>
@@ -5242,10 +5242,10 @@
         <v>36</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G89" s="13" t="s">
         <v>38</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="90" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B90" s="16">
         <v>39</v>
@@ -5267,10 +5267,10 @@
         <v>31</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G90" s="21" t="s">
         <v>41</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="91" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B91" s="16"/>
       <c r="C91" s="16">
@@ -5290,10 +5290,10 @@
         <v>39</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G91" s="21" t="s">
         <v>41</v>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="92" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B92" s="16">
         <v>88</v>
@@ -5315,21 +5315,21 @@
         <v>56</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G92" s="21" t="s">
         <v>41</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B93" s="22"/>
       <c r="C93" s="17">
@@ -5340,10 +5340,10 @@
         <v>31</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G93" s="21" t="s">
         <v>41</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="94" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B94" s="16">
         <v>89</v>
@@ -5365,10 +5365,10 @@
         <v>39</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F94" s="32" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G94" s="21" t="s">
         <v>41</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="95" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B95" s="16">
         <v>92</v>
@@ -5390,10 +5390,10 @@
         <v>39</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G95" s="21" t="s">
         <v>41</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="96" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B96" s="16">
         <v>88</v>
@@ -5417,10 +5417,10 @@
         <v>56</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G96" s="21" t="s">
         <v>41</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="97" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B97" s="16">
         <v>93</v>
@@ -5444,10 +5444,10 @@
         <v>39</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G97" s="21" t="s">
         <v>41</v>
@@ -5456,7 +5456,7 @@
     </row>
     <row r="98" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B98" s="16">
         <v>93</v>
@@ -5469,10 +5469,10 @@
         <v>39</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F98" s="28" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G98" s="28" t="s">
         <v>41</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="99" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B99" s="16">
         <v>93</v>
@@ -5494,10 +5494,10 @@
         <v>39</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G99" s="13" t="s">
         <v>41</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="100" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B100" s="16">
         <v>92</v>
@@ -5519,10 +5519,10 @@
         <v>39</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G100" s="13" t="s">
         <v>41</v>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="101" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B101" s="16">
         <v>93</v>
@@ -5544,10 +5544,10 @@
         <v>39</v>
       </c>
       <c r="E101" s="28" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F101" s="28" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G101" s="28" t="s">
         <v>41</v>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="102" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B102" s="16">
         <v>93</v>
@@ -5569,10 +5569,10 @@
         <v>39</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G102" s="13" t="s">
         <v>41</v>
@@ -5581,7 +5581,7 @@
     </row>
     <row r="103" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="16">
@@ -5592,10 +5592,10 @@
         <v>56</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G103" s="13" t="s">
         <v>41</v>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="104" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B104" s="16"/>
       <c r="C104" s="16">
@@ -5615,10 +5615,10 @@
         <v>43</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G104" s="13" t="s">
         <v>38</v>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="105" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B105" s="16">
         <v>102</v>
@@ -5640,10 +5640,10 @@
         <v>43</v>
       </c>
       <c r="E105" s="28" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F105" s="28" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G105" s="28" t="s">
         <v>38</v>
@@ -5652,7 +5652,7 @@
     </row>
     <row r="106" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B106" s="16"/>
       <c r="C106" s="16">
@@ -5663,21 +5663,21 @@
         <v>39</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G106" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B107" s="16"/>
       <c r="C107" s="16">
@@ -5688,21 +5688,21 @@
         <v>31</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G107" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B108" s="16"/>
       <c r="C108" s="16">
@@ -5713,10 +5713,10 @@
         <v>31</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G108" s="13" t="s">
         <v>41</v>
@@ -5725,7 +5725,7 @@
     </row>
     <row r="109" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B109" s="16">
         <v>93</v>
@@ -5738,10 +5738,10 @@
         <v>39</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G109" s="13" t="s">
         <v>41</v>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="110" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B110" s="16"/>
       <c r="C110" s="16">
@@ -5761,10 +5761,10 @@
         <v>31</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G110" s="13" t="s">
         <v>41</v>
@@ -5776,7 +5776,7 @@
     </row>
     <row r="111" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="35" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B111" s="13">
         <v>24</v>
@@ -5789,10 +5789,10 @@
         <v>31</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G111" s="13" t="s">
         <v>34</v>
@@ -5804,10 +5804,10 @@
     </row>
     <row r="112" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="35" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C112" s="22">
         <f t="shared" si="3"/>
@@ -5817,10 +5817,10 @@
         <v>56</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G112" s="13" t="s">
         <v>34</v>
@@ -5847,10 +5847,10 @@
     </row>
     <row r="113" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="35" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C113" s="22">
         <v>111</v>
@@ -5859,16 +5859,16 @@
         <v>56</v>
       </c>
       <c r="E113" s="37" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F113" s="26" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G113" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H113" s="26" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I113" s="34"/>
       <c r="J113" s="34"/>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="114" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="38" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B114" s="13">
         <v>24</v>
@@ -5903,10 +5903,10 @@
         <v>36</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G114" s="13" t="s">
         <v>38</v>
@@ -5915,7 +5915,7 @@
       <c r="I114" s="34"/>
       <c r="J114" s="34"/>
       <c r="K114" s="34" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L114" s="34"/>
       <c r="M114" s="34"/>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="115" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="35" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B115" s="13">
         <v>112</v>
@@ -5947,10 +5947,10 @@
         <v>36</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F115" s="26" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G115" s="13" t="s">
         <v>38</v>
@@ -5977,7 +5977,7 @@
     </row>
     <row r="116" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="35" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B116" s="13">
         <v>121</v>
@@ -5989,10 +5989,10 @@
         <v>31</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F116" s="26" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G116" s="13" t="s">
         <v>34</v>
@@ -6019,7 +6019,7 @@
     </row>
     <row r="117" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="38" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B117" s="28">
         <v>27</v>
@@ -6031,10 +6031,10 @@
         <v>36</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F117" s="26" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G117" s="28" t="s">
         <v>38</v>
@@ -6061,7 +6061,7 @@
     </row>
     <row r="118" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="35" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B118" s="13">
         <v>7</v>
@@ -6073,10 +6073,10 @@
         <v>31</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G118" s="13" t="s">
         <v>34</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="119" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="35" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B119" s="13"/>
       <c r="C119" s="22">
@@ -6100,10 +6100,10 @@
         <v>31</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G119" s="13" t="s">
         <v>34</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="120" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="38" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B120" s="28">
         <v>24</v>
@@ -6142,10 +6142,10 @@
         <v>31</v>
       </c>
       <c r="E120" s="28" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F120" s="28" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G120" s="28" t="s">
         <v>34</v>
@@ -6172,7 +6172,7 @@
     </row>
     <row r="121" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="38" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B121" s="13">
         <v>118</v>
@@ -6185,10 +6185,10 @@
         <v>31</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G121" s="13" t="s">
         <v>34</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="122" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="35" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B122" s="13">
         <v>109</v>
@@ -6228,10 +6228,10 @@
         <v>31</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G122" s="13" t="s">
         <v>34</v>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="123" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="35" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B123" s="12"/>
       <c r="C123" s="13">
@@ -6256,10 +6256,10 @@
         <v>31</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F123" s="26" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G123" s="13" t="s">
         <v>34</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="124" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="35" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B124" s="13"/>
       <c r="C124" s="13">
@@ -6297,10 +6297,10 @@
         <v>31</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F124" s="26" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G124" s="13" t="s">
         <v>41</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="125" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="38" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B125" s="28">
         <v>24</v>
@@ -6340,10 +6340,10 @@
         <v>56</v>
       </c>
       <c r="E125" s="28" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F125" s="28" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G125" s="28" t="s">
         <v>34</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="126" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="35" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B126" s="13">
         <v>123</v>
@@ -6383,10 +6383,10 @@
         <v>56</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G126" s="13" t="s">
         <v>34</v>
@@ -6395,7 +6395,7 @@
     </row>
     <row r="127" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="35" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B127" s="13">
         <v>114</v>
@@ -6408,10 +6408,10 @@
         <v>36</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F127" s="26" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G127" s="13" t="s">
         <v>41</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="128" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="35" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B128" s="40">
         <v>109123</v>
@@ -6451,10 +6451,10 @@
         <v>36</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G128" s="13" t="s">
         <v>38</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="129" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="35" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B129" s="40">
         <v>37112</v>
@@ -6475,10 +6475,10 @@
         <v>36</v>
       </c>
       <c r="E129" s="41" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G129" s="13" t="s">
         <v>38</v>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="130" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="35" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B130" s="13">
         <v>109</v>
@@ -6499,10 +6499,10 @@
         <v>31</v>
       </c>
       <c r="E130" s="41" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G130" s="13" t="s">
         <v>34</v>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="131" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B131" s="13">
         <v>24</v>
@@ -6524,10 +6524,10 @@
         <v>31</v>
       </c>
       <c r="E131" s="28" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F131" s="28" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G131" s="13" t="s">
         <v>34</v>
@@ -6536,7 +6536,7 @@
     </row>
     <row r="132" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B132" s="13">
         <v>38</v>
@@ -6549,10 +6549,10 @@
         <v>31</v>
       </c>
       <c r="E132" s="28" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F132" s="28" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G132" s="13" t="s">
         <v>41</v>
@@ -6561,7 +6561,7 @@
     </row>
     <row r="133" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B133" s="13">
         <v>7</v>
@@ -6574,10 +6574,10 @@
         <v>31</v>
       </c>
       <c r="E133" s="22" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F133" s="22" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G133" s="21" t="s">
         <v>34</v>
@@ -6586,7 +6586,7 @@
     </row>
     <row r="134" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B134" s="13"/>
       <c r="C134" s="22">
@@ -6597,10 +6597,10 @@
         <v>31</v>
       </c>
       <c r="E134" s="28" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F134" s="28" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G134" s="13" t="s">
         <v>34</v>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="135" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B135" s="13">
         <v>24</v>
@@ -6622,10 +6622,10 @@
         <v>36</v>
       </c>
       <c r="E135" s="28" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F135" s="28" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G135" s="13" t="s">
         <v>38</v>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="136" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="44" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B136" s="16">
         <v>133</v>
@@ -6647,10 +6647,10 @@
         <v>36</v>
       </c>
       <c r="E136" s="22" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G136" s="13" t="s">
         <v>38</v>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="137" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B137" s="13">
         <v>27</v>
@@ -6672,10 +6672,10 @@
         <v>36</v>
       </c>
       <c r="E137" s="22" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F137" s="22" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G137" s="13" t="s">
         <v>38</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="138" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B138" s="13">
         <v>27</v>
@@ -6697,10 +6697,10 @@
         <v>36</v>
       </c>
       <c r="E138" s="22" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F138" s="22" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G138" s="13" t="s">
         <v>38</v>
@@ -6709,7 +6709,7 @@
     </row>
     <row r="139" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B139" s="13">
         <v>27</v>
@@ -6722,10 +6722,10 @@
         <v>36</v>
       </c>
       <c r="E139" s="22" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F139" s="22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G139" s="13" t="s">
         <v>38</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="140" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B140" s="13">
         <v>129</v>
@@ -6747,10 +6747,10 @@
         <v>31</v>
       </c>
       <c r="E140" s="45" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G140" s="13" t="s">
         <v>34</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="141" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B141" s="13">
         <v>129</v>
@@ -6772,10 +6772,10 @@
         <v>31</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F141" s="22" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G141" s="13" t="s">
         <v>34</v>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="142" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B142" s="13">
         <v>147</v>
@@ -6797,10 +6797,10 @@
         <v>36</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F142" s="22" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G142" s="21" t="s">
         <v>41</v>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="143" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B143" s="13">
         <v>129</v>
@@ -6822,10 +6822,10 @@
         <v>31</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F143" s="22" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G143" s="21" t="s">
         <v>34</v>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="144" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B144" s="13">
         <v>19</v>
@@ -6847,10 +6847,10 @@
         <v>31</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G144" s="13" t="s">
         <v>34</v>
@@ -6859,7 +6859,7 @@
     </row>
     <row r="145" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B145" s="13">
         <v>19</v>
@@ -6872,10 +6872,10 @@
         <v>31</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G145" s="13" t="s">
         <v>34</v>
@@ -6884,7 +6884,7 @@
     </row>
     <row r="146" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B146" s="13">
         <v>24</v>
@@ -6897,10 +6897,10 @@
         <v>36</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F146" s="16" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G146" s="13" t="s">
         <v>38</v>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="147" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B147" s="13"/>
       <c r="C147" s="16">
@@ -6920,10 +6920,10 @@
         <v>31</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G147" s="13" t="s">
         <v>34</v>
@@ -6932,7 +6932,7 @@
     </row>
     <row r="148" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B148" s="40">
         <v>133</v>
@@ -6945,10 +6945,10 @@
         <v>36</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F148" s="16" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G148" s="13" t="s">
         <v>38</v>
@@ -6957,7 +6957,7 @@
     </row>
     <row r="149" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B149" s="40">
         <v>37133146</v>
@@ -6970,10 +6970,10 @@
         <v>36</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G149" s="13" t="s">
         <v>38</v>
@@ -6982,7 +6982,7 @@
     </row>
     <row r="150" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B150" s="26">
         <v>133</v>
@@ -6995,10 +6995,10 @@
         <v>36</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G150" s="26" t="s">
         <v>38</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="151" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B151" s="26"/>
       <c r="C151" s="16">
@@ -7018,10 +7018,10 @@
         <v>31</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G151" s="26" t="s">
         <v>34</v>
@@ -7030,7 +7030,7 @@
     </row>
     <row r="152" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B152" s="13">
         <v>101</v>
@@ -7043,10 +7043,10 @@
         <v>39</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G152" s="13" t="s">
         <v>41</v>
@@ -7055,7 +7055,7 @@
     </row>
     <row r="157" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E157" s="27" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="161" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -7148,8 +7148,8 @@
   </sheetPr>
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7170,13 +7170,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
@@ -7205,14 +7205,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>383</v>
+        <v>375</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>409</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
@@ -7241,13 +7241,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>385</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>386</v>
+        <v>377</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>407</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="48"/>
@@ -7277,13 +7277,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="48"/>
@@ -7313,13 +7313,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>393</v>
+        <v>383</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>411</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="48"/>
@@ -7349,14 +7349,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
@@ -7385,13 +7385,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="48"/>
@@ -7420,13 +7420,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>400</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>417</v>
+        <v>390</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>408</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="48"/>
@@ -7456,13 +7456,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="48"/>
@@ -7492,13 +7492,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="C10" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>410</v>
+      </c>
+      <c r="D10" s="53" t="s">
         <v>406</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>418</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="48"/>
@@ -7527,13 +7527,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="48"/>
@@ -7563,13 +7563,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="48"/>
@@ -7599,13 +7599,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="48"/>
